--- a/data/Survival_Data.xlsx
+++ b/data/Survival_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/Data/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/Survival-Meta-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8A396-3186-CD42-B94B-C9989D156625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498AB67B-09C7-B44D-B359-8A6B45788DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="0" windowWidth="12600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survival_Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5907" uniqueCount="448">
   <si>
     <t>STUDY_ID</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>MESSENHEIMER_2017</t>
   </si>
   <si>
-    <t>PPCC</t>
-  </si>
-  <si>
     <t>MOORE_2017</t>
   </si>
   <si>
@@ -1332,6 +1329,42 @@
   </si>
   <si>
     <t>UNIVERSITY HOSPITAL BASEL</t>
+  </si>
+  <si>
+    <t>BioDesign Insititute</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>Center for Infectious Diseases and Vaccionology</t>
+  </si>
+  <si>
+    <t>JOURNAL</t>
+  </si>
+  <si>
+    <t>Earle A. Chiles Research Institute</t>
+  </si>
+  <si>
+    <t>Robert W. Franz Cancer Research Center</t>
+  </si>
+  <si>
+    <t>EARCI</t>
+  </si>
+  <si>
+    <t>Tumor Biology Section, Head and Neck Surgery Branch</t>
+  </si>
+  <si>
+    <t>National Institutes on Deafness and Other Communication Disorders</t>
+  </si>
+  <si>
+    <t>OncoImmunology</t>
+  </si>
+  <si>
+    <t>Journal for ImmunoTherapy of Cancer</t>
+  </si>
+  <si>
+    <t>Cancer Immunology Research</t>
   </si>
 </sst>
 </file>
@@ -2705,8 +2738,8 @@
   <dimension ref="A1:IV417"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P391" sqref="P391"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31709,7 +31742,7 @@
     </row>
     <row r="396" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>149</v>
@@ -31781,7 +31814,7 @@
     </row>
     <row r="397" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B397" s="9" t="s">
         <v>149</v>
@@ -31793,7 +31826,7 @@
         <v>53</v>
       </c>
       <c r="E397" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F397" s="11"/>
       <c r="G397" s="11"/>
@@ -31832,7 +31865,7 @@
       <c r="T397" s="12"/>
       <c r="U397" s="12"/>
       <c r="V397" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W397" s="11"/>
       <c r="X397" s="11"/>
@@ -31849,7 +31882,7 @@
     </row>
     <row r="398" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B398" s="9" t="s">
         <v>149</v>
@@ -31911,7 +31944,7 @@
     </row>
     <row r="399" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B399" s="9" t="s">
         <v>149</v>
@@ -31923,7 +31956,7 @@
         <v>53</v>
       </c>
       <c r="E399" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F399" s="11"/>
       <c r="G399" s="11"/>
@@ -31962,7 +31995,7 @@
       <c r="T399" s="12"/>
       <c r="U399" s="12"/>
       <c r="V399" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W399" s="11"/>
       <c r="X399" s="11"/>
@@ -31979,7 +32012,7 @@
     </row>
     <row r="400" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B400" s="9" t="s">
         <v>149</v>
@@ -32047,7 +32080,7 @@
     </row>
     <row r="401" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B401" s="9" t="s">
         <v>149</v>
@@ -32059,7 +32092,7 @@
         <v>53</v>
       </c>
       <c r="E401" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F401" s="11" t="s">
         <v>82</v>
@@ -32104,7 +32137,7 @@
       </c>
       <c r="U401" s="12"/>
       <c r="V401" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W401" s="11" t="s">
         <v>84</v>
@@ -32123,7 +32156,7 @@
     </row>
     <row r="402" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B402" s="9" t="s">
         <v>187</v>
@@ -32140,7 +32173,7 @@
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
       <c r="H402" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I402" s="12">
         <v>17</v>
@@ -32185,7 +32218,7 @@
     </row>
     <row r="403" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B403" s="9" t="s">
         <v>187</v>
@@ -32197,12 +32230,12 @@
         <v>31</v>
       </c>
       <c r="E403" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F403" s="11"/>
       <c r="G403" s="11"/>
       <c r="H403" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I403" s="12">
         <v>17</v>
@@ -32236,7 +32269,7 @@
       <c r="T403" s="12"/>
       <c r="U403" s="12"/>
       <c r="V403" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W403" s="11"/>
       <c r="X403" s="11"/>
@@ -32253,7 +32286,7 @@
     </row>
     <row r="404" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B404" s="9" t="s">
         <v>187</v>
@@ -32270,7 +32303,7 @@
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
       <c r="H404" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I404" s="12">
         <v>17</v>
@@ -32321,7 +32354,7 @@
     </row>
     <row r="405" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B405" s="9" t="s">
         <v>187</v>
@@ -32333,14 +32366,14 @@
         <v>31</v>
       </c>
       <c r="E405" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F405" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G405" s="11"/>
       <c r="H405" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I405" s="12">
         <v>17</v>
@@ -32378,7 +32411,7 @@
       </c>
       <c r="U405" s="12"/>
       <c r="V405" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W405" s="11" t="s">
         <v>84</v>
@@ -32397,7 +32430,7 @@
     </row>
     <row r="406" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B406" s="9" t="s">
         <v>149</v>
@@ -32414,7 +32447,7 @@
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
       <c r="H406" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I406" s="12">
         <v>17</v>
@@ -32459,7 +32492,7 @@
     </row>
     <row r="407" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B407" s="9" t="s">
         <v>149</v>
@@ -32476,7 +32509,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
       <c r="H407" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I407" s="12">
         <v>17</v>
@@ -32527,7 +32560,7 @@
     </row>
     <row r="408" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B408" s="9" t="s">
         <v>149</v>
@@ -32544,7 +32577,7 @@
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
       <c r="H408" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I408" s="12">
         <v>17</v>
@@ -32578,7 +32611,7 @@
       <c r="T408" s="12"/>
       <c r="U408" s="12"/>
       <c r="V408" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W408" s="11"/>
       <c r="X408" s="11"/>
@@ -32595,7 +32628,7 @@
     </row>
     <row r="409" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B409" s="9" t="s">
         <v>149</v>
@@ -32612,7 +32645,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
       <c r="H409" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I409" s="12">
         <v>17</v>
@@ -32663,7 +32696,7 @@
     </row>
     <row r="410" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B410" s="9" t="s">
         <v>149</v>
@@ -32675,14 +32708,14 @@
         <v>53</v>
       </c>
       <c r="E410" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F410" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G410" s="11"/>
       <c r="H410" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I410" s="12">
         <v>17</v>
@@ -32720,7 +32753,7 @@
       </c>
       <c r="U410" s="12"/>
       <c r="V410" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W410" s="11" t="s">
         <v>51</v>
@@ -32739,7 +32772,7 @@
     </row>
     <row r="411" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B411" s="9" t="s">
         <v>149</v>
@@ -32751,14 +32784,14 @@
         <v>53</v>
       </c>
       <c r="E411" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F411" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G411" s="11"/>
       <c r="H411" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I411" s="12">
         <v>17</v>
@@ -32796,10 +32829,10 @@
       </c>
       <c r="U411" s="12"/>
       <c r="V411" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="W411" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="W411" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="X411" s="11"/>
       <c r="Y411" s="10" t="s">
@@ -32815,7 +32848,7 @@
     </row>
     <row r="412" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B412" s="9" t="s">
         <v>149</v>
@@ -32827,14 +32860,14 @@
         <v>53</v>
       </c>
       <c r="E412" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F412" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G412" s="11"/>
       <c r="H412" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I412" s="12">
         <v>17</v>
@@ -32872,7 +32905,7 @@
       </c>
       <c r="U412" s="12"/>
       <c r="V412" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W412" s="11" t="s">
         <v>84</v>
@@ -32891,7 +32924,7 @@
     </row>
     <row r="413" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B413" s="9" t="s">
         <v>149</v>
@@ -32910,7 +32943,7 @@
       </c>
       <c r="G413" s="11"/>
       <c r="H413" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I413" s="12">
         <v>17</v>
@@ -32951,7 +32984,7 @@
         <v>51</v>
       </c>
       <c r="W413" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X413" s="11"/>
       <c r="Y413" s="10" t="s">
@@ -32967,7 +33000,7 @@
     </row>
     <row r="414" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B414" s="9" t="s">
         <v>149</v>
@@ -32986,7 +33019,7 @@
       </c>
       <c r="G414" s="11"/>
       <c r="H414" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I414" s="12">
         <v>17</v>
@@ -33043,7 +33076,7 @@
     </row>
     <row r="415" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B415" s="9" t="s">
         <v>149</v>
@@ -33055,7 +33088,7 @@
         <v>53</v>
       </c>
       <c r="E415" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F415" s="11" t="s">
         <v>40</v>
@@ -33064,7 +33097,7 @@
         <v>38</v>
       </c>
       <c r="H415" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I415" s="12">
         <v>17</v>
@@ -33106,13 +33139,13 @@
         <v>12.5</v>
       </c>
       <c r="V415" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W415" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X415" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y415" s="10" t="s">
         <v>36</v>
@@ -33127,7 +33160,7 @@
     </row>
     <row r="416" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B416" s="9" t="s">
         <v>149</v>
@@ -33139,7 +33172,7 @@
         <v>53</v>
       </c>
       <c r="E416" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F416" s="11" t="s">
         <v>40</v>
@@ -33148,7 +33181,7 @@
         <v>82</v>
       </c>
       <c r="H416" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I416" s="12">
         <v>17</v>
@@ -33190,7 +33223,7 @@
         <v>12.5</v>
       </c>
       <c r="V416" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W416" s="11" t="s">
         <v>51</v>
@@ -33280,95 +33313,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECABE46-D7CE-BB47-83D7-F529D3E82627}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>435</v>
-      </c>
       <c r="D1" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="14">
         <v>0</v>
       </c>
@@ -33385,16 +33422,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="14">
         <v>1</v>
       </c>
       <c r="N2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="14">
         <v>1</v>
@@ -33403,32 +33440,34 @@
         <v>0</v>
       </c>
       <c r="Q2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="14">
         <v>0</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="14">
         <v>0</v>
       </c>
@@ -33448,13 +33487,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="14">
         <v>1</v>
@@ -33463,32 +33502,34 @@
         <v>0</v>
       </c>
       <c r="Q3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="14">
         <v>0</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="T3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="14">
         <v>0</v>
       </c>
@@ -33502,10 +33543,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="14">
         <v>1</v>
@@ -33514,7 +33555,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="14">
         <v>1</v>
@@ -33523,32 +33564,34 @@
         <v>0</v>
       </c>
       <c r="Q4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="14">
         <v>0</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="14">
         <v>0</v>
       </c>
@@ -33562,10 +33605,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -33574,7 +33617,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="14">
         <v>1</v>
@@ -33583,37 +33626,39 @@
         <v>0</v>
       </c>
       <c r="Q5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14">
         <v>0</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -33622,10 +33667,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="14">
         <v>1</v>
@@ -33634,10 +33679,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -33648,40 +33693,46 @@
       <c r="R6" s="14">
         <v>0</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -33690,21 +33741,19 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="14">
         <v>0</v>
       </c>
@@ -33721,7 +33770,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -33739,32 +33788,34 @@
         <v>0</v>
       </c>
       <c r="Q8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="14">
         <v>0</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="14">
         <v>0</v>
       </c>
@@ -33787,7 +33838,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="14">
         <v>0</v>
@@ -33799,32 +33850,34 @@
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="14">
         <v>0</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="14">
         <v>0</v>
       </c>
@@ -33841,16 +33894,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14">
         <v>1</v>
       </c>
       <c r="N10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="14">
         <v>1</v>
@@ -33859,32 +33912,34 @@
         <v>0</v>
       </c>
       <c r="Q10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="14">
         <v>0</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="14">
         <v>0</v>
       </c>
@@ -33901,16 +33956,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="14">
         <v>1</v>
       </c>
       <c r="N11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="14">
         <v>1</v>
@@ -33919,37 +33974,39 @@
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="14">
         <v>0</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -33958,10 +34015,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -33970,7 +34027,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="14">
         <v>1</v>
@@ -33979,32 +34036,34 @@
         <v>0</v>
       </c>
       <c r="Q12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="14">
         <v>0</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="14">
         <v>0</v>
       </c>
@@ -34024,16 +34083,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="14">
         <v>0</v>
@@ -34044,32 +34103,34 @@
       <c r="R13" s="14">
         <v>0</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="14">
         <v>0</v>
       </c>
       <c r="G14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
@@ -34078,10 +34139,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="14">
         <v>1</v>
@@ -34090,10 +34151,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -34104,32 +34165,34 @@
       <c r="R14" s="14">
         <v>0</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="14">
         <v>0</v>
       </c>
       <c r="G15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -34141,16 +34204,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="14">
         <v>1</v>
       </c>
       <c r="N15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="14">
         <v>1</v>
@@ -34159,32 +34222,34 @@
         <v>0</v>
       </c>
       <c r="Q15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="14">
         <v>0</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="14">
         <v>0</v>
       </c>
@@ -34198,10 +34263,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="14">
         <v>1</v>
@@ -34210,7 +34275,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="14">
         <v>1</v>
@@ -34219,32 +34284,34 @@
         <v>0</v>
       </c>
       <c r="Q16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="14">
         <v>0</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="14">
         <v>0</v>
       </c>
@@ -34258,10 +34325,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -34270,7 +34337,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="14">
         <v>1</v>
@@ -34279,32 +34346,34 @@
         <v>0</v>
       </c>
       <c r="Q17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="14">
         <v>0</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="14">
         <v>0</v>
       </c>
@@ -34321,16 +34390,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="14">
         <v>1</v>
       </c>
       <c r="N18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="14">
         <v>1</v>
@@ -34339,31 +34408,39 @@
         <v>0</v>
       </c>
       <c r="Q18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="14">
         <v>0</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="V18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
+      <c r="D19" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="F19" s="14">
         <v>0</v>
@@ -34371,121 +34448,217 @@
       <c r="G19" s="14">
         <v>0</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
       <c r="J19" s="14">
         <v>0</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="V19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>407</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="E20" t="s">
+        <v>441</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="14">
+        <v>1</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>1</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="V20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>1</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>1</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="V21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="34" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-    </row>
-    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="14">
         <v>0</v>
       </c>
       <c r="G22" s="14">
         <v>0</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
@@ -34494,21 +34667,19 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
-    </row>
-    <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+    </row>
+    <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="14">
         <v>0</v>
       </c>
@@ -34524,8 +34695,12 @@
       <c r="J23" s="14">
         <v>0</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
@@ -34534,34 +34709,36 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-    </row>
-    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="14">
         <v>0</v>
       </c>
       <c r="G24" s="14">
         <v>0</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
-        <v>0</v>
-      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14"/>
       <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
@@ -34570,34 +34747,36 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
-    </row>
-    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+    </row>
+    <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="14">
         <v>0</v>
       </c>
       <c r="G25" s="14">
         <v>0</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
-        <v>0</v>
-      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -34606,34 +34785,36 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-    </row>
-    <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+    </row>
+    <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14">
         <v>0</v>
       </c>
       <c r="G26" s="14">
         <v>0</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
-        <v>0</v>
-      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
@@ -34642,34 +34823,36 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-    </row>
-    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+    </row>
+    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="14">
         <v>0</v>
       </c>
       <c r="G27" s="14">
         <v>0</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14">
-        <v>0</v>
-      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -34678,34 +34861,36 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-    </row>
-    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+    </row>
+    <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="14">
         <v>0</v>
       </c>
       <c r="G28" s="14">
         <v>0</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
-        <v>0</v>
-      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -34714,34 +34899,36 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-    </row>
-    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+    </row>
+    <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="14">
         <v>0</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14">
-        <v>0</v>
-      </c>
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -34750,34 +34937,36 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+    </row>
+    <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14">
-        <v>0</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="14">
         <v>0</v>
       </c>
       <c r="G30" s="14">
         <v>0</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
-        <v>0</v>
-      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
@@ -34786,21 +34975,19 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-    </row>
-    <row r="31" spans="1:20" ht="34" x14ac:dyDescent="0.15">
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+    </row>
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
-      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="14">
         <v>0</v>
       </c>
@@ -34820,16 +35007,16 @@
         <v>0</v>
       </c>
       <c r="L31" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="14">
         <v>0</v>
@@ -34840,22 +35027,28 @@
       <c r="R31" s="14">
         <v>0</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
+        <v>0</v>
+      </c>
+      <c r="U31" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="T31" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="42" x14ac:dyDescent="0.15">
+      <c r="V31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" t="s">
         <v>433</v>
       </c>
-      <c r="B32" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" t="s">
-        <v>436</v>
+      <c r="E32" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
